--- a/Ehatalıysa/Ehatalıysa.xlsx
+++ b/Ehatalıysa/Ehatalıysa.xlsx
@@ -1,141 +1,227 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhasebe\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="1395" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="EHATALIYSA" sheetId="1" r:id="rId1"/>
+    <sheet name="EHatalıysa" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>YAYIN EVLERİ</t>
+    <t>Çözüm</t>
   </si>
   <si>
-    <t>SATILAN
-KİTAP ADEDİ</t>
+    <t>Ehatalıysa</t>
   </si>
   <si>
-    <t>Can Yayınevi</t>
+    <t>Değer</t>
   </si>
   <si>
-    <t>Bilgi Yayınevi</t>
+    <t>Sonuç</t>
   </si>
   <si>
-    <t>Özgür Yayınevi</t>
+    <t>İstenilenler</t>
   </si>
   <si>
-    <t>Çağdaş Yayınevi</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A3(Hata Değeri) hücresine </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#SAYI/0!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hatası oluşturunuz.</t>
+    </r>
   </si>
   <si>
-    <t>Ören Yayınevi</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A5 hücresine herhangi br sayı değeri yazınız.</t>
+    </r>
   </si>
   <si>
-    <t>TOPLAM</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A4 hücresine</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> #AD?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hatası oluşturunuz.</t>
+    </r>
   </si>
   <si>
-    <t>X Yayınevi</t>
-  </si>
-  <si>
-    <t>Y Yayınevi</t>
-  </si>
-  <si>
-    <t>Z Yayınevi</t>
-  </si>
-  <si>
-    <t>T Yayınevi</t>
-  </si>
-  <si>
-    <t>W Yayınevi</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Not: ehatalıysa işlevi yukaridaki hataların olduğunuda </t>
-    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>doğru</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B5(Çözüm) hücresine hata durumunun </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hata olmadığında </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yanlış</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="162"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> değeri görüntüler</t>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>varlığını veya yokluğunu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ifade edecek uyarıyı Ehatalıysa formülüyle yazdırınız.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₺_-;\-* #,##0.00\ _₺_-;_-* &quot;-&quot;??\ _₺_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₺_-;\-* #,##0\ _₺_-;_-* &quot;-&quot;??\ _₺_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;TL&quot;;\-#,##0\ &quot;TL&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,21 +236,63 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial Tur"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial Tur"/>
       <charset val="162"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,7 +301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,92 +336,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Binlik Ayracı" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="ParaBirimi 3 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>326101</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Resim 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="7758" t="71047" r="32520" b="26306"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="133349" y="2762249"/>
-          <a:ext cx="10660727" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,9 +427,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +461,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,9 +496,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,157 +672,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1250</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <f>IF(ISERROR(VLOOKUP(D2,$A$2:$B$10,2,0))," xx",(VLOOKUP(D2,$A$2:$B$10,2,0)))</f>
-        <v>1700</v>
-      </c>
-      <c r="F2" s="3">
-        <f>IF(ISERROR(VLOOKUP(D2,$A$2:$B$10,2,0))," ",VLOOKUP(D2,$A$2:$B$10,2,0))</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="str">
+        <f ca="1">IF(B3="","",_xlfn.FORMULATEXT(B3))</f>
+        <v/>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="str">
+        <f t="shared" ref="C4:C5" ca="1" si="0">IF(B4="","",_xlfn.FORMULATEXT(B4))</f>
+        <v/>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E5" si="0">IF(ISERROR(VLOOKUP(D3,$A$2:$B$10,2,0))," xx",(VLOOKUP(D3,$A$2:$B$10,2,0)))</f>
-        <v>1800</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" ref="F3:F4" si="1">IF(ISERROR(VLOOKUP(D3,$A$2:$B$10,2,0))," ",VLOOKUP(D3,$A$2:$B$10,2,0))</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1700</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> xx</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1800</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <f>SUM(E2:E4)</f>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+    </row>
+    <row r="25" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+    </row>
+    <row r="28" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+    </row>
+    <row r="29" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+    </row>
+    <row r="30" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>